--- a/Experimentos.xlsx
+++ b/Experimentos.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="trayectorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N_INSTANCIAS</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>N_PUNTOS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>#Trayectorias</t>
   </si>
 </sst>
 </file>
@@ -362,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -431,4 +438,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f>FACT(A2-1)/2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">FACT(A3-1)/2</f>
+        <v>181440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4.6663107721972077E+155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="e">
+        <f>FACT(A5-1)/2</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100000</v>
+      </c>
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>